--- a/car_comments/static/export/xlsx/car.xlsx
+++ b/car_comments/static/export/xlsx/car.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>year_end</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>comments_count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,27 +461,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ferrari 112</t>
+          <t>Lada Granta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OrderedDict([('name', 'Ferrari')])</t>
+          <t>comments.Car.None</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="E2" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>&lt;QuerySet [{'id': 1, 'email': 'ferrari_lover223@gmail.com', 'car_id': 'Ferrari 112', 'comment_text': 'I`m so obsessed with this car!', 'create_date': datetime.date(2023, 4, 2)}]&gt;</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renault Duster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>comments.Car.None</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
